--- a/data/rna/rna_samples_extractions.xlsx
+++ b/data/rna/rna_samples_extractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/rna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DAE473-E380-A54F-B98E-AC6485E7BBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C13C2-D443-4046-A622-213E7B4D3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="760" windowWidth="14820" windowHeight="17760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="34900" yWindow="-920" windowWidth="26760" windowHeight="17760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="188">
   <si>
     <t>sample_id</t>
   </si>
@@ -595,13 +595,19 @@
   </si>
   <si>
     <t>larval</t>
+  </si>
+  <si>
+    <t>extraction.batch</t>
+  </si>
+  <si>
+    <t>concentration via Qubit 3.0 high sensitivity RNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,6 +640,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,7 +721,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -734,6 +745,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,17 +1063,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="14" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.5" hidden="1" customWidth="1"/>
@@ -1066,14 +1081,15 @@
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1082,7 +1098,7 @@
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1110,20 +1126,23 @@
         <v>177</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1132,7 +1151,7 @@
       <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>149</v>
       </c>
       <c r="E2" t="s">
@@ -1158,9 +1177,28 @@
         <f t="shared" ref="K2:K33" si="1">A2&amp;" gDNA"</f>
         <v>1 gDNA</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="L2">
+        <v>20250714</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>22.8</v>
+      </c>
+      <c r="P2">
+        <f>N2*O2</f>
+        <v>1824</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1169,7 +1207,7 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>24</v>
       </c>
       <c r="E3" t="s">
@@ -1195,9 +1233,25 @@
         <f t="shared" si="1"/>
         <v>2 gDNA</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="L3">
+        <v>20250714</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>11.2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P65" si="2">N3*O3</f>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1206,7 +1260,7 @@
       <c r="C4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>152</v>
       </c>
       <c r="E4" t="s">
@@ -1232,9 +1286,25 @@
         <f t="shared" si="1"/>
         <v>3 gDNA</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="L4">
+        <v>20250714</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>24.8</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1243,7 +1313,7 @@
       <c r="C5" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E5" t="s">
@@ -1269,9 +1339,25 @@
         <f t="shared" si="1"/>
         <v>4 gDNA</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="L5">
+        <v>20250714</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1280,7 +1366,7 @@
       <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E6" t="s">
@@ -1306,9 +1392,25 @@
         <f t="shared" si="1"/>
         <v>5 gDNA</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="L6">
+        <v>20250714</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>6.84</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>547.20000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1317,7 +1419,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1343,11 +1445,25 @@
         <f t="shared" si="1"/>
         <v>6 gDNA</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="L7">
+        <v>20250714</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1356,7 +1472,7 @@
       <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E8" t="s">
@@ -1382,9 +1498,25 @@
         <f t="shared" si="1"/>
         <v>7 gDNA</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="L8">
+        <v>20250714</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>11.2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1393,7 +1525,7 @@
       <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>148</v>
       </c>
       <c r="E9" t="s">
@@ -1419,9 +1551,25 @@
         <f t="shared" si="1"/>
         <v>8 gDNA</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="L9">
+        <v>20250714</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1430,7 +1578,7 @@
       <c r="C10" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E10" t="s">
@@ -1456,9 +1604,25 @@
         <f t="shared" si="1"/>
         <v>9 gDNA</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="L10">
+        <v>20250714</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>24.4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1467,7 +1631,7 @@
       <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>130</v>
       </c>
       <c r="E11" t="s">
@@ -1493,9 +1657,25 @@
         <f t="shared" si="1"/>
         <v>10 gDNA</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="L11">
+        <v>20250714</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>10.6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1504,7 +1684,7 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>53</v>
       </c>
       <c r="E12" t="s">
@@ -1519,8 +1699,8 @@
       <c r="H12" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>109</v>
+      <c r="I12" s="5">
+        <v>33</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1530,10 +1710,25 @@
         <f t="shared" si="1"/>
         <v>11 gDNA</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="L12">
+        <v>20250716</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>80</v>
+      </c>
+      <c r="O12" s="4">
+        <v>57</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1542,7 +1737,7 @@
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E13" t="s">
@@ -1568,9 +1763,25 @@
         <f t="shared" si="1"/>
         <v>12 gDNA</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="L13">
+        <v>20250716</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>27.8</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1579,7 +1790,7 @@
       <c r="C14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>136</v>
       </c>
       <c r="E14" t="s">
@@ -1605,9 +1816,25 @@
         <f t="shared" si="1"/>
         <v>13 gDNA</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="L14">
+        <v>20250716</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>6.66</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>532.79999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1616,7 +1843,7 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>45</v>
       </c>
       <c r="E15" t="s">
@@ -1631,8 +1858,8 @@
       <c r="H15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>110</v>
+      <c r="I15" s="5">
+        <v>27</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1642,10 +1869,25 @@
         <f t="shared" si="1"/>
         <v>14 gDNA</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="L15">
+        <v>20250716</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+      <c r="O15" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1654,7 +1896,7 @@
       <c r="C16" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E16" t="s">
@@ -1680,9 +1922,25 @@
         <f t="shared" si="1"/>
         <v>15 gDNA</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="L16">
+        <v>20250716</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <v>7.48</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>598.40000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1691,7 +1949,7 @@
       <c r="C17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>142</v>
       </c>
       <c r="E17" t="s">
@@ -1717,9 +1975,25 @@
         <f t="shared" si="1"/>
         <v>16 gDNA</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="L17">
+        <v>20250716</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <v>8.68</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>694.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1728,7 +2002,7 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>62</v>
       </c>
       <c r="E18" t="s">
@@ -1743,8 +2017,8 @@
       <c r="H18" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>110</v>
+      <c r="I18" s="5">
+        <v>27</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -1754,9 +2028,25 @@
         <f t="shared" si="1"/>
         <v>17 gDNA</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="L18">
+        <v>20250716</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>22.2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1765,7 +2055,7 @@
       <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>159</v>
       </c>
       <c r="E19" t="s">
@@ -1791,9 +2081,25 @@
         <f t="shared" si="1"/>
         <v>18 gDNA</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="L19">
+        <v>20250716</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>80</v>
+      </c>
+      <c r="O19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1802,7 +2108,7 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E20" t="s">
@@ -1828,9 +2134,25 @@
         <f t="shared" si="1"/>
         <v>19 gDNA</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="L20">
+        <v>20250716</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>6.04</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>483.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1839,7 +2161,7 @@
       <c r="C21" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E21" t="s">
@@ -1865,9 +2187,25 @@
         <f t="shared" si="1"/>
         <v>20 gDNA</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="L21">
+        <v>20250716</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>80</v>
+      </c>
+      <c r="O21">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1876,7 +2214,7 @@
       <c r="C22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E22" t="s">
@@ -1902,9 +2240,25 @@
         <f t="shared" si="1"/>
         <v>21 gDNA</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="L22">
+        <v>20250716</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <v>48.2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1913,7 +2267,7 @@
       <c r="C23" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E23" t="s">
@@ -1939,9 +2293,25 @@
         <f t="shared" si="1"/>
         <v>22 gDNA</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="L23">
+        <v>20250716</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>80</v>
+      </c>
+      <c r="O23">
+        <v>8.08</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>646.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1950,7 +2320,7 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>30</v>
       </c>
       <c r="E24" t="s">
@@ -1976,9 +2346,25 @@
         <f t="shared" si="1"/>
         <v>23 gDNA</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="L24">
+        <v>20250716</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>80</v>
+      </c>
+      <c r="O24">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>710.40000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1987,7 +2373,7 @@
       <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E25" t="s">
@@ -2013,9 +2399,25 @@
         <f t="shared" si="1"/>
         <v>24 gDNA</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="L25">
+        <v>20250716</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>42.6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2024,7 +2426,7 @@
       <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>60</v>
       </c>
       <c r="E26" t="s">
@@ -2039,8 +2441,8 @@
       <c r="H26" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>108</v>
+      <c r="I26" s="5">
+        <v>30</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -2050,9 +2452,25 @@
         <f t="shared" si="1"/>
         <v>25 gDNA</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="L26">
+        <v>20250716</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>7.22</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>577.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2061,7 +2479,7 @@
       <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
@@ -2087,9 +2505,25 @@
         <f t="shared" si="1"/>
         <v>26 gDNA</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="L27">
+        <v>20250716</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>7.92</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>633.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2098,7 +2532,7 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>31</v>
       </c>
       <c r="E28" t="s">
@@ -2124,9 +2558,25 @@
         <f t="shared" si="1"/>
         <v>27 gDNA</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+      <c r="L28">
+        <v>20250716</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2135,7 +2585,7 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>20</v>
       </c>
       <c r="E29" t="s">
@@ -2161,9 +2611,25 @@
         <f t="shared" si="1"/>
         <v>28 gDNA</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="L29">
+        <v>20250716</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>80</v>
+      </c>
+      <c r="O29">
+        <v>17.5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2172,7 +2638,7 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>27</v>
       </c>
       <c r="E30" t="s">
@@ -2198,9 +2664,25 @@
         <f t="shared" si="1"/>
         <v>29 gDNA</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+      <c r="L30">
+        <v>20250716</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>29.2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2209,7 +2691,7 @@
       <c r="C31" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>134</v>
       </c>
       <c r="E31" t="s">
@@ -2235,9 +2717,25 @@
         <f t="shared" si="1"/>
         <v>30 gDNA</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+      <c r="L31">
+        <v>20250716</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>80</v>
+      </c>
+      <c r="O31">
+        <v>7.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2246,7 +2744,7 @@
       <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>55</v>
       </c>
       <c r="E32" t="s">
@@ -2261,8 +2759,8 @@
       <c r="H32" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>110</v>
+      <c r="I32" s="5">
+        <v>27</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -2272,10 +2770,25 @@
         <f t="shared" si="1"/>
         <v>31 gDNA</v>
       </c>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
+      <c r="L32">
+        <v>20250718</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>80</v>
+      </c>
+      <c r="O32" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2284,7 +2797,7 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>17</v>
       </c>
       <c r="E33" t="s">
@@ -2310,9 +2823,25 @@
         <f t="shared" si="1"/>
         <v>32 gDNA</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+      <c r="L33">
+        <v>20250718</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2321,7 +2850,7 @@
       <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>48</v>
       </c>
       <c r="E34" t="s">
@@ -2336,21 +2865,36 @@
       <c r="H34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>109</v>
+      <c r="I34" s="5">
+        <v>33</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J65" si="2">A34&amp;" RNA"</f>
+        <f t="shared" ref="J34:J65" si="3">A34&amp;" RNA"</f>
         <v>33 RNA</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K65" si="3">A34&amp;" gDNA"</f>
+        <f t="shared" ref="K34:K65" si="4">A34&amp;" gDNA"</f>
         <v>33 gDNA</v>
       </c>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
+      <c r="L34">
+        <v>20250718</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>80</v>
+      </c>
+      <c r="O34" s="4">
+        <v>46.6</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2359,7 +2903,7 @@
       <c r="C35" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E35" t="s">
@@ -2378,16 +2922,32 @@
         <v>30</v>
       </c>
       <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>34 RNA</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v>34 gDNA</v>
+      </c>
+      <c r="L35">
+        <v>20250718</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>6.98</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>34 RNA</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v>34 gDNA</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+        <v>558.40000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2396,7 +2956,7 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>29</v>
       </c>
       <c r="E36" t="s">
@@ -2415,16 +2975,32 @@
         <v>27</v>
       </c>
       <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>35 RNA</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v>35 gDNA</v>
+      </c>
+      <c r="L36">
+        <v>20250718</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+      <c r="O36" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>35 RNA</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="3"/>
-        <v>35 gDNA</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2433,7 +3009,7 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>14</v>
       </c>
       <c r="E37" t="s">
@@ -2452,18 +3028,32 @@
         <v>33</v>
       </c>
       <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>36 RNA</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
+        <v>36 gDNA</v>
+      </c>
+      <c r="L37">
+        <v>20250718</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>80</v>
+      </c>
+      <c r="O37" s="22">
+        <v>12.7</v>
+      </c>
+      <c r="P37" s="22">
         <f t="shared" si="2"/>
-        <v>36 RNA</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="3"/>
-        <v>36 gDNA</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2472,7 +3062,7 @@
       <c r="C38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E38" t="s">
@@ -2491,16 +3081,32 @@
         <v>30</v>
       </c>
       <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>37 RNA</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
+        <v>37 gDNA</v>
+      </c>
+      <c r="L38">
+        <v>20250718</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38" s="22">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="P38" s="22">
         <f t="shared" si="2"/>
-        <v>37 RNA</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v>37 gDNA</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="19">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2509,7 +3115,7 @@
       <c r="C39" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>132</v>
       </c>
       <c r="E39" t="s">
@@ -2528,16 +3134,32 @@
         <v>30</v>
       </c>
       <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>38 RNA</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v>38 gDNA</v>
+      </c>
+      <c r="L39">
+        <v>20250718</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>80</v>
+      </c>
+      <c r="O39" s="22">
+        <v>7.42</v>
+      </c>
+      <c r="P39" s="22">
         <f t="shared" si="2"/>
-        <v>38 RNA</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="3"/>
-        <v>38 gDNA</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
+        <v>593.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2546,7 +3168,7 @@
       <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E40" t="s">
@@ -2565,16 +3187,32 @@
         <v>33</v>
       </c>
       <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>39 RNA</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
+        <v>39 gDNA</v>
+      </c>
+      <c r="L40">
+        <v>20250718</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>80</v>
+      </c>
+      <c r="O40" s="22">
+        <v>28.4</v>
+      </c>
+      <c r="P40" s="22">
         <f t="shared" si="2"/>
-        <v>39 RNA</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v>39 gDNA</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2583,7 +3221,7 @@
       <c r="C41" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E41" t="s">
@@ -2602,16 +3240,32 @@
         <v>33</v>
       </c>
       <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>40 RNA</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v>40 gDNA</v>
+      </c>
+      <c r="L41">
+        <v>20250718</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>80</v>
+      </c>
+      <c r="O41" s="22">
+        <v>28.6</v>
+      </c>
+      <c r="P41" s="22">
         <f t="shared" si="2"/>
-        <v>40 RNA</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v>40 gDNA</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2620,7 +3274,7 @@
       <c r="C42" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>154</v>
       </c>
       <c r="E42" t="s">
@@ -2639,16 +3293,32 @@
         <v>30</v>
       </c>
       <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>41 RNA</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
+        <v>41 gDNA</v>
+      </c>
+      <c r="L42">
+        <v>20250718</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>80</v>
+      </c>
+      <c r="O42" s="22">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P42" s="22">
         <f t="shared" si="2"/>
-        <v>41 RNA</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v>41 gDNA</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2657,7 +3327,7 @@
       <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>21</v>
       </c>
       <c r="E43" t="s">
@@ -2676,16 +3346,32 @@
         <v>33</v>
       </c>
       <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>42 RNA</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v>42 gDNA</v>
+      </c>
+      <c r="L43">
+        <v>20250718</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>80</v>
+      </c>
+      <c r="O43" s="22">
+        <v>15.7</v>
+      </c>
+      <c r="P43" s="22">
         <f t="shared" si="2"/>
-        <v>42 RNA</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="3"/>
-        <v>42 gDNA</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2694,7 +3380,7 @@
       <c r="C44" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>19</v>
       </c>
       <c r="E44" t="s">
@@ -2713,16 +3399,32 @@
         <v>27</v>
       </c>
       <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>43 RNA</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v>43 gDNA</v>
+      </c>
+      <c r="L44">
+        <v>20250718</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>80</v>
+      </c>
+      <c r="O44" s="22">
+        <v>16.7</v>
+      </c>
+      <c r="P44" s="22">
         <f t="shared" si="2"/>
-        <v>43 RNA</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="3"/>
-        <v>43 gDNA</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2731,7 +3433,7 @@
       <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>16</v>
       </c>
       <c r="E45" t="s">
@@ -2750,16 +3452,32 @@
         <v>30</v>
       </c>
       <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>44 RNA</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>44 gDNA</v>
+      </c>
+      <c r="L45">
+        <v>20250718</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>80</v>
+      </c>
+      <c r="O45" s="22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P45" s="22">
         <f t="shared" si="2"/>
-        <v>44 RNA</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="3"/>
-        <v>44 gDNA</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2768,7 +3486,7 @@
       <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E46" t="s">
@@ -2787,16 +3505,32 @@
         <v>33</v>
       </c>
       <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>45 RNA</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v>45 gDNA</v>
+      </c>
+      <c r="L46">
+        <v>20250721</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>80</v>
+      </c>
+      <c r="O46" s="23">
+        <v>8.34</v>
+      </c>
+      <c r="P46" s="22">
         <f t="shared" si="2"/>
-        <v>45 RNA</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="3"/>
-        <v>45 gDNA</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
+        <v>667.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -2805,7 +3539,7 @@
       <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>32</v>
       </c>
       <c r="E47" t="s">
@@ -2824,16 +3558,32 @@
         <v>33</v>
       </c>
       <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>46 RNA</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v>46 gDNA</v>
+      </c>
+      <c r="L47">
+        <v>20250721</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>80</v>
+      </c>
+      <c r="O47" s="23">
+        <v>32.4</v>
+      </c>
+      <c r="P47" s="22">
         <f t="shared" si="2"/>
-        <v>46 RNA</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="3"/>
-        <v>46 gDNA</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2842,7 +3592,7 @@
       <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>46</v>
       </c>
       <c r="E48" t="s">
@@ -2857,21 +3607,36 @@
       <c r="H48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>108</v>
+      <c r="I48" s="5">
+        <v>30</v>
       </c>
       <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>47 RNA</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v>47 gDNA</v>
+      </c>
+      <c r="L48">
+        <v>20250721</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>80</v>
+      </c>
+      <c r="O48" s="23">
+        <v>26.8</v>
+      </c>
+      <c r="P48" s="22">
         <f t="shared" si="2"/>
-        <v>47 RNA</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="3"/>
-        <v>47 gDNA</v>
-      </c>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2880,7 +3645,7 @@
       <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>156</v>
       </c>
       <c r="E49" t="s">
@@ -2899,16 +3664,32 @@
         <v>33</v>
       </c>
       <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>48 RNA</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="4"/>
+        <v>48 gDNA</v>
+      </c>
+      <c r="L49">
+        <v>20250721</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>80</v>
+      </c>
+      <c r="O49" s="23">
+        <v>51.4</v>
+      </c>
+      <c r="P49" s="22">
         <f t="shared" si="2"/>
-        <v>48 RNA</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="3"/>
-        <v>48 gDNA</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -2917,7 +3698,7 @@
       <c r="C50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E50" t="s">
@@ -2936,16 +3717,32 @@
         <v>27</v>
       </c>
       <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>49 RNA</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="4"/>
+        <v>49 gDNA</v>
+      </c>
+      <c r="L50">
+        <v>20250721</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>80</v>
+      </c>
+      <c r="O50" s="23">
+        <v>10</v>
+      </c>
+      <c r="P50" s="22">
         <f t="shared" si="2"/>
-        <v>49 RNA</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="3"/>
-        <v>49 gDNA</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2954,7 +3751,7 @@
       <c r="C51" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>15</v>
       </c>
       <c r="E51" t="s">
@@ -2973,16 +3770,32 @@
         <v>33</v>
       </c>
       <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>50 RNA</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
+        <v>50 gDNA</v>
+      </c>
+      <c r="L51">
+        <v>20250721</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>80</v>
+      </c>
+      <c r="O51" s="23">
+        <v>22.6</v>
+      </c>
+      <c r="P51" s="22">
         <f t="shared" si="2"/>
-        <v>50 RNA</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="3"/>
-        <v>50 gDNA</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2991,7 +3804,7 @@
       <c r="C52" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>125</v>
       </c>
       <c r="E52" t="s">
@@ -3010,16 +3823,32 @@
         <v>27</v>
       </c>
       <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>51 RNA</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="4"/>
+        <v>51 gDNA</v>
+      </c>
+      <c r="L52">
+        <v>20250721</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>80</v>
+      </c>
+      <c r="O52" s="23">
+        <v>6.06</v>
+      </c>
+      <c r="P52" s="22">
         <f t="shared" si="2"/>
-        <v>51 RNA</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="3"/>
-        <v>51 gDNA</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="19">
+        <v>484.79999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3028,7 +3857,7 @@
       <c r="C53" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>141</v>
       </c>
       <c r="E53" t="s">
@@ -3047,16 +3876,32 @@
         <v>33</v>
       </c>
       <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>52 RNA</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
+        <v>52 gDNA</v>
+      </c>
+      <c r="L53">
+        <v>20250721</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>80</v>
+      </c>
+      <c r="O53" s="23">
+        <v>5.34</v>
+      </c>
+      <c r="P53" s="22">
         <f t="shared" si="2"/>
-        <v>52 RNA</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="3"/>
-        <v>52 gDNA</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
+        <v>427.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3065,7 +3910,7 @@
       <c r="C54" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>25</v>
       </c>
       <c r="E54" t="s">
@@ -3084,16 +3929,32 @@
         <v>27</v>
       </c>
       <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>53 RNA</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
+        <v>53 gDNA</v>
+      </c>
+      <c r="L54">
+        <v>20250721</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>80</v>
+      </c>
+      <c r="O54" s="23">
+        <v>26.4</v>
+      </c>
+      <c r="P54" s="22">
         <f t="shared" si="2"/>
-        <v>53 RNA</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="3"/>
-        <v>53 gDNA</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3102,7 +3963,7 @@
       <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>13</v>
       </c>
       <c r="E55" t="s">
@@ -3121,16 +3982,32 @@
         <v>27</v>
       </c>
       <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>54 RNA</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
+        <v>54 gDNA</v>
+      </c>
+      <c r="L55">
+        <v>20250721</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>80</v>
+      </c>
+      <c r="O55" s="23">
+        <v>13.8</v>
+      </c>
+      <c r="P55" s="22">
         <f t="shared" si="2"/>
-        <v>54 RNA</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="3"/>
-        <v>54 gDNA</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3139,7 +4016,7 @@
       <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>58</v>
       </c>
       <c r="E56" t="s">
@@ -3154,21 +4031,36 @@
       <c r="H56" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>108</v>
+      <c r="I56" s="5">
+        <v>30</v>
       </c>
       <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>55 RNA</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="4"/>
+        <v>55 gDNA</v>
+      </c>
+      <c r="L56">
+        <v>20250722</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>80</v>
+      </c>
+      <c r="O56" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="P56" s="22">
         <f t="shared" si="2"/>
-        <v>55 RNA</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="3"/>
-        <v>55 gDNA</v>
-      </c>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -3177,7 +4069,7 @@
       <c r="C57" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E57" t="s">
@@ -3196,16 +4088,32 @@
         <v>33</v>
       </c>
       <c r="J57" t="str">
+        <f t="shared" si="3"/>
+        <v>56 RNA</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="4"/>
+        <v>56 gDNA</v>
+      </c>
+      <c r="L57">
+        <v>20250722</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>80</v>
+      </c>
+      <c r="O57" s="23">
+        <v>21</v>
+      </c>
+      <c r="P57" s="22">
         <f t="shared" si="2"/>
-        <v>56 RNA</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="3"/>
-        <v>56 gDNA</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -3214,7 +4122,7 @@
       <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E58" t="s">
@@ -3233,16 +4141,32 @@
         <v>27</v>
       </c>
       <c r="J58" t="str">
+        <f t="shared" si="3"/>
+        <v>57 RNA</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="4"/>
+        <v>57 gDNA</v>
+      </c>
+      <c r="L58">
+        <v>20250722</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>80</v>
+      </c>
+      <c r="O58" s="23">
+        <v>28</v>
+      </c>
+      <c r="P58" s="22">
         <f t="shared" si="2"/>
-        <v>57 RNA</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="3"/>
-        <v>57 gDNA</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -3251,7 +4175,7 @@
       <c r="C59" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E59" t="s">
@@ -3270,16 +4194,32 @@
         <v>30</v>
       </c>
       <c r="J59" t="str">
+        <f t="shared" si="3"/>
+        <v>58 RNA</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="4"/>
+        <v>58 gDNA</v>
+      </c>
+      <c r="L59">
+        <v>20250722</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>80</v>
+      </c>
+      <c r="O59" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="P59" s="22">
         <f t="shared" si="2"/>
-        <v>58 RNA</v>
-      </c>
-      <c r="K59" t="str">
-        <f t="shared" si="3"/>
-        <v>58 gDNA</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="19">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -3288,7 +4228,7 @@
       <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>28</v>
       </c>
       <c r="E60" t="s">
@@ -3307,16 +4247,32 @@
         <v>30</v>
       </c>
       <c r="J60" t="str">
+        <f t="shared" si="3"/>
+        <v>59 RNA</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="4"/>
+        <v>59 gDNA</v>
+      </c>
+      <c r="L60">
+        <v>20250722</v>
+      </c>
+      <c r="M60">
+        <v>6</v>
+      </c>
+      <c r="N60">
+        <v>80</v>
+      </c>
+      <c r="O60" s="23">
+        <v>23.2</v>
+      </c>
+      <c r="P60" s="22">
         <f t="shared" si="2"/>
-        <v>59 RNA</v>
-      </c>
-      <c r="K60" t="str">
-        <f t="shared" si="3"/>
-        <v>59 gDNA</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="19">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -3325,7 +4281,7 @@
       <c r="C61" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E61" t="s">
@@ -3344,16 +4300,32 @@
         <v>27</v>
       </c>
       <c r="J61" t="str">
+        <f t="shared" si="3"/>
+        <v>60 RNA</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="4"/>
+        <v>60 gDNA</v>
+      </c>
+      <c r="L61">
+        <v>20250722</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>80</v>
+      </c>
+      <c r="O61" s="23">
+        <v>31.2</v>
+      </c>
+      <c r="P61" s="22">
         <f t="shared" si="2"/>
-        <v>60 RNA</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="3"/>
-        <v>60 gDNA</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="19">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3362,7 +4334,7 @@
       <c r="C62" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>64</v>
       </c>
       <c r="E62" t="s">
@@ -3377,20 +4349,36 @@
       <c r="H62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>109</v>
+      <c r="I62" s="5">
+        <v>33</v>
       </c>
       <c r="J62" t="str">
+        <f t="shared" si="3"/>
+        <v>61 RNA</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="4"/>
+        <v>61 gDNA</v>
+      </c>
+      <c r="L62">
+        <v>20250722</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>80</v>
+      </c>
+      <c r="O62" s="23">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="P62" s="22">
         <f t="shared" si="2"/>
-        <v>61 RNA</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="3"/>
-        <v>61 gDNA</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="19">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -3399,7 +4387,7 @@
       <c r="C63" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>50</v>
       </c>
       <c r="E63" t="s">
@@ -3414,21 +4402,36 @@
       <c r="H63" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>109</v>
+      <c r="I63" s="5">
+        <v>33</v>
       </c>
       <c r="J63" t="str">
+        <f t="shared" si="3"/>
+        <v>62 RNA</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="4"/>
+        <v>62 gDNA</v>
+      </c>
+      <c r="L63">
+        <v>20250722</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>80</v>
+      </c>
+      <c r="O63" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="P63" s="22">
         <f t="shared" si="2"/>
-        <v>62 RNA</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="3"/>
-        <v>62 gDNA</v>
-      </c>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="19">
+        <v>414.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3437,7 +4440,7 @@
       <c r="C64" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>153</v>
       </c>
       <c r="E64" t="s">
@@ -3456,16 +4459,32 @@
         <v>30</v>
       </c>
       <c r="J64" t="str">
+        <f t="shared" si="3"/>
+        <v>63 RNA</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="4"/>
+        <v>63 gDNA</v>
+      </c>
+      <c r="L64">
+        <v>20250722</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
+      <c r="N64">
+        <v>80</v>
+      </c>
+      <c r="O64" s="23">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="P64" s="22">
         <f t="shared" si="2"/>
-        <v>63 RNA</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="3"/>
-        <v>63 gDNA</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3474,7 +4493,7 @@
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3493,16 +4512,32 @@
         <v>33</v>
       </c>
       <c r="J65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>64 RNA</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>64 gDNA</v>
+      </c>
+      <c r="L65" s="1">
+        <v>20250722</v>
+      </c>
+      <c r="M65" s="1">
+        <v>6</v>
+      </c>
+      <c r="N65" s="1">
+        <v>80</v>
+      </c>
+      <c r="O65" s="1">
+        <v>14</v>
+      </c>
+      <c r="P65" s="1">
         <f t="shared" si="2"/>
-        <v>64 RNA</v>
-      </c>
-      <c r="K65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>64 gDNA</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B66" t="s">
@@ -3511,7 +4546,7 @@
       <c r="C66" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>1</v>
       </c>
       <c r="E66" t="s">
@@ -3530,32 +4565,32 @@
         <v>33</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J76" si="4">A66&amp;" RNA"</f>
+        <f t="shared" ref="J66:J76" si="5">A66&amp;" RNA"</f>
         <v>T1 RNA</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K76" si="5">A66&amp;" gDNA"</f>
+        <f t="shared" ref="K66:K76" si="6">A66&amp;" gDNA"</f>
         <v>T1 gDNA</v>
       </c>
       <c r="L66">
         <v>20250708</v>
       </c>
-      <c r="M66">
-        <v>80</v>
-      </c>
       <c r="N66">
+        <v>80</v>
+      </c>
+      <c r="O66">
         <v>58.6</v>
       </c>
-      <c r="O66">
-        <f>M66*N66</f>
+      <c r="P66">
+        <f>N66*O66</f>
         <v>4688</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B67" t="s">
@@ -3564,7 +4599,7 @@
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>2</v>
       </c>
       <c r="E67" t="s">
@@ -3583,32 +4618,32 @@
         <v>30</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>T2 RNA</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>T2 gDNA</v>
       </c>
       <c r="L67">
         <v>20250708</v>
       </c>
-      <c r="M67">
-        <v>80</v>
-      </c>
       <c r="N67">
+        <v>80</v>
+      </c>
+      <c r="O67">
         <v>28.4</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O75" si="6">M67*N67</f>
+      <c r="P67">
+        <f t="shared" ref="P67:P75" si="7">N67*O67</f>
         <v>2272</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B68" t="s">
@@ -3617,7 +4652,7 @@
       <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>3</v>
       </c>
       <c r="E68" t="s">
@@ -3636,35 +4671,35 @@
         <v>27</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>T3 RNA</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>T3 gDNA</v>
       </c>
       <c r="L68">
         <v>20250708</v>
       </c>
-      <c r="M68">
-        <v>80</v>
-      </c>
       <c r="N68">
+        <v>80</v>
+      </c>
+      <c r="O68">
         <v>28.6</v>
       </c>
-      <c r="O68">
-        <f t="shared" si="6"/>
+      <c r="P68">
+        <f t="shared" si="7"/>
         <v>2288</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>181</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B69" t="s">
@@ -3673,7 +4708,7 @@
       <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>4</v>
       </c>
       <c r="E69" t="s">
@@ -3692,35 +4727,35 @@
         <v>33</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>T4 RNA</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>T4 gDNA</v>
       </c>
       <c r="L69">
         <v>20250708</v>
       </c>
-      <c r="M69">
-        <v>80</v>
-      </c>
       <c r="N69">
+        <v>80</v>
+      </c>
+      <c r="O69">
         <v>25.6</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="6"/>
+      <c r="P69">
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>181</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B70" t="s">
@@ -3729,7 +4764,7 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>5</v>
       </c>
       <c r="E70" t="s">
@@ -3748,35 +4783,35 @@
         <v>30</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>T5 RNA</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>T5 gDNA</v>
       </c>
       <c r="L70">
         <v>20250708</v>
       </c>
-      <c r="M70">
-        <v>80</v>
-      </c>
       <c r="N70">
+        <v>80</v>
+      </c>
+      <c r="O70">
         <v>34</v>
       </c>
-      <c r="O70">
-        <f t="shared" si="6"/>
+      <c r="P70">
+        <f t="shared" si="7"/>
         <v>2720</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>181</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B71" t="s">
@@ -3785,7 +4820,7 @@
       <c r="C71" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>33</v>
       </c>
       <c r="E71" t="s">
@@ -3800,8 +4835,8 @@
       <c r="H71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>110</v>
+      <c r="I71" s="5">
+        <v>27</v>
       </c>
       <c r="J71" t="str">
         <f>A71&amp;" RNA"</f>
@@ -3814,22 +4849,22 @@
       <c r="L71">
         <v>20250708</v>
       </c>
-      <c r="M71">
-        <v>80</v>
-      </c>
       <c r="N71">
+        <v>80</v>
+      </c>
+      <c r="O71">
         <v>67.599999999999994</v>
       </c>
-      <c r="O71">
-        <f t="shared" si="6"/>
+      <c r="P71">
+        <f t="shared" si="7"/>
         <v>5408</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B72" t="s">
@@ -3838,7 +4873,7 @@
       <c r="C72" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>34</v>
       </c>
       <c r="E72" t="s">
@@ -3853,8 +4888,8 @@
       <c r="H72" t="s">
         <v>107</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>108</v>
+      <c r="I72" s="5">
+        <v>30</v>
       </c>
       <c r="J72" t="str">
         <f>A72&amp;" RNA"</f>
@@ -3867,22 +4902,22 @@
       <c r="L72">
         <v>20250708</v>
       </c>
-      <c r="M72">
-        <v>80</v>
-      </c>
       <c r="N72">
+        <v>80</v>
+      </c>
+      <c r="O72">
         <v>39.4</v>
       </c>
-      <c r="O72">
-        <f t="shared" si="6"/>
+      <c r="P72">
+        <f t="shared" si="7"/>
         <v>3152</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B73" t="s">
@@ -3891,7 +4926,7 @@
       <c r="C73" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>47</v>
       </c>
       <c r="E73" t="s">
@@ -3906,8 +4941,8 @@
       <c r="H73" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>108</v>
+      <c r="I73" s="5">
+        <v>30</v>
       </c>
       <c r="J73" t="str">
         <f>A73&amp;" RNA"</f>
@@ -3920,22 +4955,22 @@
       <c r="L73">
         <v>20250708</v>
       </c>
-      <c r="M73">
-        <v>80</v>
-      </c>
-      <c r="N73" s="4">
+      <c r="N73">
+        <v>80</v>
+      </c>
+      <c r="O73" s="4">
         <v>39.4</v>
       </c>
-      <c r="O73">
-        <f t="shared" si="6"/>
+      <c r="P73">
+        <f t="shared" si="7"/>
         <v>3152</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B74" t="s">
@@ -3944,7 +4979,7 @@
       <c r="C74" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>49</v>
       </c>
       <c r="E74" t="s">
@@ -3959,8 +4994,8 @@
       <c r="H74" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>109</v>
+      <c r="I74" s="5">
+        <v>33</v>
       </c>
       <c r="J74" t="str">
         <f>A74&amp;" RNA"</f>
@@ -3973,21 +5008,21 @@
       <c r="L74">
         <v>20250708</v>
       </c>
-      <c r="M74">
-        <v>80</v>
-      </c>
-      <c r="N74" s="4">
+      <c r="N74">
+        <v>80</v>
+      </c>
+      <c r="O74" s="4">
         <v>59.4</v>
       </c>
-      <c r="O74">
-        <f t="shared" si="6"/>
+      <c r="P74">
+        <f t="shared" si="7"/>
         <v>4752</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -3997,7 +5032,7 @@
       <c r="C75" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>52</v>
       </c>
       <c r="E75" t="s">
@@ -4012,8 +5047,8 @@
       <c r="H75" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>108</v>
+      <c r="I75" s="5">
+        <v>30</v>
       </c>
       <c r="J75" t="str">
         <f>A75&amp;" RNA"</f>
@@ -4026,21 +5061,21 @@
       <c r="L75">
         <v>20250708</v>
       </c>
-      <c r="M75">
-        <v>80</v>
-      </c>
-      <c r="N75" s="4">
+      <c r="N75">
+        <v>80</v>
+      </c>
+      <c r="O75" s="4">
         <v>9.14</v>
       </c>
-      <c r="O75">
-        <f t="shared" si="6"/>
+      <c r="P75">
+        <f t="shared" si="7"/>
         <v>731.2</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>176</v>
       </c>
@@ -4050,7 +5085,7 @@
       <c r="C76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="16">
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4069,1515 +5104,1533 @@
         <v>118</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>T10 RNA</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>T10 gDNA</v>
       </c>
       <c r="L76" s="3">
         <v>20250708</v>
       </c>
-      <c r="M76" s="3">
-        <v>80</v>
-      </c>
-      <c r="N76" s="3"/>
-      <c r="P76" s="1" t="s">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <v>80</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="Q76" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="15">
         <v>6</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="G77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <v>30</v>
       </c>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="9" t="s">
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="15">
         <v>7</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="9" t="s">
+      <c r="G78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="9">
         <v>27</v>
       </c>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="9" t="s">
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="15">
         <v>8</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="9" t="s">
+      <c r="G79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="9">
         <v>33</v>
       </c>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="9" t="s">
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="16">
-        <v>9</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="15">
+        <v>9</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="9" t="s">
+      <c r="G80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="15">
         <v>10</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="9" t="s">
+    <row r="82" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="15">
         <v>11</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="15">
         <v>12</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="9" t="s">
+      <c r="G83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="9" t="s">
+    <row r="84" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="15">
         <v>35</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="12" t="s">
+      <c r="G84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="15">
         <v>36</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="9" t="s">
+      <c r="G85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="15">
         <v>37</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="12" t="s">
+      <c r="G86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="9" t="s">
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="15">
         <v>38</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
       <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
-      <c r="B88" s="9" t="s">
+      <c r="O87" s="11"/>
+    </row>
+    <row r="88" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="15">
         <v>39</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
-      <c r="B89" s="9" t="s">
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+    </row>
+    <row r="89" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="15">
         <v>40</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="12" t="s">
+      <c r="G89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-    </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
-      <c r="B90" s="9" t="s">
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+    </row>
+    <row r="90" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="15">
         <v>41</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="12" t="s">
+      <c r="G90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-    </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
-      <c r="B91" s="9" t="s">
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+    </row>
+    <row r="91" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="15">
         <v>42</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="12" t="s">
+      <c r="G91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-    </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
-      <c r="B92" s="9" t="s">
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+    </row>
+    <row r="92" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="15">
         <v>43</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="12" t="s">
+      <c r="G92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="B93" s="9" t="s">
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+    </row>
+    <row r="93" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="15">
         <v>44</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="12" t="s">
+      <c r="G93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
-      <c r="B94" s="9" t="s">
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+    </row>
+    <row r="94" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="15">
         <v>65</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="9" t="s">
+      <c r="G94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
-      <c r="B95" s="9" t="s">
+    <row r="95" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="15">
         <v>66</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="9" t="s">
+      <c r="G95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
+      <c r="B96" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="15">
         <v>67</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="9" t="s">
+      <c r="G96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22"/>
-      <c r="B97" s="9" t="s">
+    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
+      <c r="B97" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="15">
         <v>68</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="9" t="s">
+      <c r="G97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="B98" s="9" t="s">
+    <row r="98" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="15">
         <v>69</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="9" t="s">
+      <c r="G98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
+      <c r="B99" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="15">
         <v>70</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H99" s="9" t="s">
+      <c r="G99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="21"/>
+      <c r="B100" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="15">
         <v>71</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="9" t="s">
+      <c r="G100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22"/>
-      <c r="B101" s="9" t="s">
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+    </row>
+    <row r="101" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
+      <c r="B101" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="15">
         <v>72</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="9" t="s">
+      <c r="G101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-    </row>
-    <row r="102" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22"/>
-      <c r="B102" s="9" t="s">
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+    </row>
+    <row r="102" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
+      <c r="B102" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="15">
         <v>73</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="9" t="s">
+      <c r="G102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="B103" s="9" t="s">
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+    </row>
+    <row r="103" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="21"/>
+      <c r="B103" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="15">
         <v>74</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="9" t="s">
+      <c r="G103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22"/>
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="B104" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="15">
         <v>75</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="9" t="s">
+      <c r="G104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="B105" s="9" t="s">
+    <row r="105" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="21"/>
+      <c r="B105" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D105" s="16">
+      <c r="C105" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="15">
         <v>76</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="9" t="s">
+      <c r="G105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
-      <c r="B106" s="9" t="s">
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+    </row>
+    <row r="106" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
+      <c r="B106" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="15">
         <v>54</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H106" s="12" t="s">
+      <c r="H106" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-    </row>
-    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="22"/>
-      <c r="B107" s="9" t="s">
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="21"/>
+      <c r="B107" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="15">
         <v>56</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="12" t="s">
+      <c r="G107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-    </row>
-    <row r="108" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="22"/>
-      <c r="B108" s="9" t="s">
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+    </row>
+    <row r="108" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="21"/>
+      <c r="B108" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="15">
         <v>57</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="12" t="s">
+      <c r="G108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-    </row>
-    <row r="109" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="22"/>
-      <c r="B109" s="9" t="s">
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+    </row>
+    <row r="109" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="21"/>
+      <c r="B109" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <v>61</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="12" t="s">
+      <c r="G109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="I109" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="22"/>
-      <c r="B110" s="9" t="s">
+    <row r="110" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D110" s="16">
+      <c r="D110" s="15">
         <v>63</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="12" t="s">
+      <c r="G110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I110" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="B111" s="9" t="s">
+    <row r="111" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="15">
         <v>77</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="9" t="s">
+      <c r="G111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
+      <c r="B112" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="15">
         <v>79</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H112" s="9" t="s">
+      <c r="G112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
+      <c r="B113" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="16">
-        <v>80</v>
-      </c>
-      <c r="E113" s="9" t="s">
+      <c r="D113" s="15">
+        <v>80</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" s="9" t="s">
+      <c r="G113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K113" s="11"/>
-    </row>
-    <row r="114" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="B114" s="9" t="s">
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="21"/>
+      <c r="B114" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="15">
         <v>81</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="9" t="s">
+      <c r="G114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="9" t="s">
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+    </row>
+    <row r="115" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="21"/>
+      <c r="B115" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="15">
         <v>82</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="9" t="s">
+      <c r="G115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="21"/>
+      <c r="B116" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="15">
         <v>83</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G116" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="9" t="s">
+      <c r="G116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="21"/>
+      <c r="B117" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="16">
+      <c r="D117" s="15">
         <v>84</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="9" t="s">
+      <c r="G117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="I117" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
-      <c r="B118" s="9" t="s">
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+    </row>
+    <row r="118" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
+      <c r="B118" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D118" s="16">
+      <c r="D118" s="15">
         <v>85</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="9" t="s">
+      <c r="G118" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I118" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="22"/>
-      <c r="B119" s="9" t="s">
+    <row r="119" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="21"/>
+      <c r="B119" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D119" s="16">
+      <c r="D119" s="15">
         <v>86</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H119" s="9" t="s">
+      <c r="G119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I119" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22"/>
-      <c r="B120" s="9" t="s">
+    <row r="120" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="21"/>
+      <c r="B120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D120" s="16">
+      <c r="D120" s="15">
         <v>87</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="9" t="s">
+      <c r="G120" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I120" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="22"/>
-      <c r="B121" s="9" t="s">
+    <row r="121" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21"/>
+      <c r="B121" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="15">
         <v>88</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H121" s="9" t="s">
+      <c r="G121" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I121" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="22"/>
-      <c r="B122" s="9" t="s">
+    <row r="122" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="21"/>
+      <c r="B122" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="15">
         <v>90</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G122" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="9" t="s">
+      <c r="G122" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I122" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="22"/>
-      <c r="B123" s="9" t="s">
+    <row r="123" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="21"/>
+      <c r="B123" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <v>91</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="9" t="s">
+      <c r="G123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I123" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="22"/>
-      <c r="B124" s="9" t="s">
+    <row r="124" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="21"/>
+      <c r="B124" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="15">
         <v>92</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="9" t="s">
+      <c r="G124" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I124" s="10" t="s">
+      <c r="I124" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22"/>
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="21"/>
+      <c r="B125" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="15">
         <v>93</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G125" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" s="9" t="s">
+      <c r="G125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I125" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="22"/>
-      <c r="B126" s="9" t="s">
+    <row r="126" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="21"/>
+      <c r="B126" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D126" s="16">
+      <c r="D126" s="15">
         <v>94</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H126" s="12" t="s">
+      <c r="H126" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I126" s="10" t="s">
+      <c r="I126" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="22"/>
-      <c r="B127" s="9" t="s">
+    <row r="127" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="21"/>
+      <c r="B127" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="15">
         <v>95</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" s="12" t="s">
+      <c r="G127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I127" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="22"/>
-      <c r="B128" s="9" t="s">
+    <row r="128" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="21"/>
+      <c r="B128" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D128" s="16">
+      <c r="D128" s="15">
         <v>96</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G128" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H128" s="12" t="s">
+      <c r="G128" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I128" s="10" t="s">
+      <c r="I128" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5604,7 +6657,7 @@
       </c>
       <c r="B1">
         <f t="shared" ref="B1:B32" ca="1" si="0">RAND()</f>
-        <v>0.20131529751796207</v>
+        <v>0.46086737235485931</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5613,7 +6666,7 @@
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66124548733354782</v>
+        <v>0.76311499065180621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5622,7 +6675,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39554810809451102</v>
+        <v>0.55258583083935719</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +6684,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34231431278919811</v>
+        <v>0.28740364432566634</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5640,7 +6693,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31446782067913015</v>
+        <v>0.87710310941424674</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5649,7 +6702,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16349201855532114</v>
+        <v>2.3841014268553673E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5658,7 +6711,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48416986665715678</v>
+        <v>0.62994475842958086</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5667,7 +6720,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84091732077958503</v>
+        <v>5.2157788139922112E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5676,7 +6729,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12462415141417327</v>
+        <v>0.98883318925528108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5685,7 +6738,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71826253238905113</v>
+        <v>0.79619169765625253</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,7 +6747,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30811397946157892</v>
+        <v>0.2855311663488278</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +6756,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23428567469268069</v>
+        <v>0.74765857386167678</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5712,7 +6765,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53941341957098521</v>
+        <v>0.46023269802548405</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5721,7 +6774,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90271488665074662</v>
+        <v>0.9387253734697959</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5730,7 +6783,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19307219916420082</v>
+        <v>0.58806852302261359</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5739,7 +6792,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25784754970041213</v>
+        <v>7.5402411002302161E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5748,7 +6801,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20307153040206649</v>
+        <v>8.1644032614626605E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5757,7 +6810,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68740033165992354</v>
+        <v>0.52521225553438722</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5766,7 +6819,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54994092756118174</v>
+        <v>0.75973977795154324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +6828,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93432237974136678</v>
+        <v>0.97938923027029767</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5784,7 +6837,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53094241627750793</v>
+        <v>3.4651584278528103E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5793,7 +6846,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14992020510532866</v>
+        <v>0.63491236266846218</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5802,7 +6855,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6594626682311513E-2</v>
+        <v>0.59682124719783525</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5811,7 +6864,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28959158237602323</v>
+        <v>0.28954836488332314</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5820,7 +6873,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70992157212772622</v>
+        <v>0.69735519612771157</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5829,7 +6882,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85428256949947246</v>
+        <v>0.24372434911090535</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5838,7 +6891,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17318007730273988</v>
+        <v>0.29290097586451225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +6900,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86343476655275897</v>
+        <v>0.38547543837563492</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -5856,7 +6909,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84108194618719656</v>
+        <v>0.44367995240174662</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5865,7 +6918,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50084431772574123</v>
+        <v>0.72357060708404042</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -5874,7 +6927,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.179981682404462</v>
+        <v>0.17075082987756973</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +6936,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15027334280082216</v>
+        <v>0.12119097190330408</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5892,7 +6945,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B64" ca="1" si="1">RAND()</f>
-        <v>0.8171058537490713</v>
+        <v>0.8879403567913855</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -5901,7 +6954,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57271963894094691</v>
+        <v>5.6657715401550957E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -5910,7 +6963,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12600577118461653</v>
+        <v>0.20706006882226413</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +6972,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39956091564200835</v>
+        <v>0.11167122315946132</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -5928,7 +6981,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62588314432063485</v>
+        <v>0.61521808406677747</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -5937,7 +6990,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35514051650385392</v>
+        <v>0.14341189325819059</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -5946,7 +6999,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7563486808984824</v>
+        <v>0.83321757634239568</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -5955,7 +7008,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36590880037451001</v>
+        <v>0.65828907695891858</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -5964,7 +7017,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64221518345256345</v>
+        <v>0.88716424564925056</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -5973,7 +7026,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20501405651093374</v>
+        <v>0.24697043135819075</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -5982,7 +7035,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8588414291796026</v>
+        <v>0.29930727231015331</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +7044,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64151262719628543</v>
+        <v>0.22701333110379296</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6000,7 +7053,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>7.819102297819025E-2</v>
+        <v>0.54337912214972939</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6009,7 +7062,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8821694414629847</v>
+        <v>0.49527661770799514</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6018,7 +7071,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1947909610413</v>
+        <v>0.9523898871210571</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6027,7 +7080,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19954093703608455</v>
+        <v>0.20019581875857229</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6036,7 +7089,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3686212211021348</v>
+        <v>0.96951840282544</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6045,7 +7098,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14824914968898084</v>
+        <v>0.58221668475903066</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6054,7 +7107,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34043907137606133</v>
+        <v>0.67464971782414751</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +7116,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69647211579890655</v>
+        <v>0.63484437499082458</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6072,7 +7125,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19525980242533247</v>
+        <v>0.58326081138097674</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6081,7 +7134,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12432852433450559</v>
+        <v>0.70805070288446892</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6090,7 +7143,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15665660209519428</v>
+        <v>0.85415383135612821</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6099,7 +7152,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68706658289380373</v>
+        <v>0.49984509839896984</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6108,7 +7161,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22567850004096379</v>
+        <v>0.6593130598481588</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -6117,7 +7170,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58618135466172283</v>
+        <v>0.66509204607880867</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6126,7 +7179,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33194625282630585</v>
+        <v>0.35681348832120574</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,7 +7188,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38634388940520592</v>
+        <v>0.34974731113009294</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -6144,7 +7197,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69487117356230432</v>
+        <v>0.23739339237119106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -6153,7 +7206,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93781532183517369</v>
+        <v>0.22860667128318235</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -6162,7 +7215,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9839759283775411E-2</v>
+        <v>0.43858469680040757</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -6171,7 +7224,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2268556718164634E-3</v>
+        <v>0.65526844614580926</v>
       </c>
     </row>
   </sheetData>

--- a/data/rna/rna_samples_extractions.xlsx
+++ b/data/rna/rna_samples_extractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/rna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C13C2-D443-4046-A622-213E7B4D3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA79099-1B19-2444-AF7D-BC19EC4C3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34900" yWindow="-920" windowWidth="26760" windowHeight="17760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="253">
   <si>
     <t>sample_id</t>
   </si>
@@ -601,6 +601,201 @@
   </si>
   <si>
     <t>concentration via Qubit 3.0 high sensitivity RNA</t>
+  </si>
+  <si>
+    <t>sample_name</t>
+  </si>
+  <si>
+    <t>1_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>2_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>3_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>4_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>5_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>6_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>7_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>8_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>9_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>10_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>11_Pocillopora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>12_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>13_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>14_Pocillopora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>15_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>16_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>17_Pocillopora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>18_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>19_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>20_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>21_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>22_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>23_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>24_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>25_Pocillopora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>26_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>27_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>28_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>29_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>30_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>31_Pocillopora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>32_Acropora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>33_Pocillopora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>34_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>35_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>36_Acropora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>37_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>38_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>39_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>40_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>41_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>42_Acropora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>43_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>44_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>45_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>46_Acropora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>47_Pocillopora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>48_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>49_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>50_Acropora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>51_Pocillopora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>52_Pocillopora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>53_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>54_Acropora_Recruit_27C</t>
+  </si>
+  <si>
+    <t>55_Pocillopora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>56_Acropora_Larvae_33C</t>
+  </si>
+  <si>
+    <t>57_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>58_Pocillopora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>59_Acropora_Recruit_30C</t>
+  </si>
+  <si>
+    <t>60_Acropora_Larvae_27C</t>
+  </si>
+  <si>
+    <t>61_Pocillopora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>62_Pocillopora_Recruit_33C</t>
+  </si>
+  <si>
+    <t>63_Acropora_Larvae_30C</t>
+  </si>
+  <si>
+    <t>64_Acropora_Recruit_33C</t>
   </si>
 </sst>
 </file>
@@ -706,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,7 +940,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1065,9 +1259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:Q1"/>
+      <selection pane="topRight" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,9 +1280,10 @@
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>166</v>
       </c>
@@ -1140,8 +1335,11 @@
       <c r="Q1" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1196,8 +1394,11 @@
       <c r="Q2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1249,8 +1450,11 @@
         <f t="shared" ref="P3:P65" si="2">N3*O3</f>
         <v>896</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1302,8 +1506,11 @@
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1355,8 +1562,11 @@
         <f t="shared" si="2"/>
         <v>368</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1408,8 +1618,11 @@
         <f t="shared" si="2"/>
         <v>547.20000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1461,8 +1674,11 @@
         <f t="shared" si="2"/>
         <v>1528</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1514,8 +1730,11 @@
         <f t="shared" si="2"/>
         <v>896</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1567,8 +1786,11 @@
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1620,8 +1842,11 @@
         <f t="shared" si="2"/>
         <v>1952</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1673,8 +1898,11 @@
         <f t="shared" si="2"/>
         <v>848</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1726,8 +1954,11 @@
         <f t="shared" si="2"/>
         <v>4560</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1779,8 +2010,11 @@
         <f t="shared" si="2"/>
         <v>2224</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1832,8 +2066,11 @@
         <f t="shared" si="2"/>
         <v>532.79999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1885,8 +2122,11 @@
         <f t="shared" si="2"/>
         <v>2576</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1938,8 +2178,11 @@
         <f t="shared" si="2"/>
         <v>598.40000000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1991,8 +2234,11 @@
         <f t="shared" si="2"/>
         <v>694.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2044,8 +2290,11 @@
         <f t="shared" si="2"/>
         <v>1776</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2097,8 +2346,11 @@
         <f t="shared" si="2"/>
         <v>2576</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2150,8 +2402,11 @@
         <f t="shared" si="2"/>
         <v>483.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -2203,8 +2458,11 @@
         <f t="shared" si="2"/>
         <v>2576</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2256,8 +2514,11 @@
         <f t="shared" si="2"/>
         <v>3856</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2309,8 +2570,11 @@
         <f t="shared" si="2"/>
         <v>646.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2362,8 +2626,11 @@
         <f t="shared" si="2"/>
         <v>710.40000000000009</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2415,8 +2682,11 @@
         <f t="shared" si="2"/>
         <v>3408</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2468,8 +2738,11 @@
         <f t="shared" si="2"/>
         <v>577.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2521,8 +2794,11 @@
         <f t="shared" si="2"/>
         <v>633.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2574,8 +2850,11 @@
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -2627,8 +2906,11 @@
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2680,8 +2962,11 @@
         <f t="shared" si="2"/>
         <v>2336</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2733,8 +3018,11 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -2786,8 +3074,11 @@
         <f t="shared" si="2"/>
         <v>1792</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -2839,8 +3130,11 @@
         <f t="shared" si="2"/>
         <v>1552</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -2892,8 +3186,11 @@
         <f t="shared" si="2"/>
         <v>3728</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2945,8 +3242,11 @@
         <f t="shared" si="2"/>
         <v>558.40000000000009</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -2998,8 +3298,11 @@
         <f t="shared" si="2"/>
         <v>1968</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -3044,15 +3347,18 @@
       <c r="N37">
         <v>80</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37">
         <v>12.7</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37">
         <f t="shared" si="2"/>
         <v>1016</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -3097,15 +3403,18 @@
       <c r="N38">
         <v>80</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38">
         <v>38.200000000000003</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38">
         <f t="shared" si="2"/>
         <v>3056</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -3150,15 +3459,18 @@
       <c r="N39">
         <v>80</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O39">
         <v>7.42</v>
       </c>
-      <c r="P39" s="22">
+      <c r="P39">
         <f t="shared" si="2"/>
         <v>593.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -3203,15 +3515,18 @@
       <c r="N40">
         <v>80</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40">
         <v>28.4</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40">
         <f t="shared" si="2"/>
         <v>2272</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -3256,15 +3571,18 @@
       <c r="N41">
         <v>80</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41">
         <v>28.6</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41">
         <f t="shared" si="2"/>
         <v>2288</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -3309,15 +3627,18 @@
       <c r="N42">
         <v>80</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42">
         <v>35.799999999999997</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42">
         <f t="shared" si="2"/>
         <v>2864</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -3362,15 +3683,18 @@
       <c r="N43">
         <v>80</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43">
         <v>15.7</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P43">
         <f t="shared" si="2"/>
         <v>1256</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -3415,15 +3739,18 @@
       <c r="N44">
         <v>80</v>
       </c>
-      <c r="O44" s="22">
+      <c r="O44">
         <v>16.7</v>
       </c>
-      <c r="P44" s="22">
+      <c r="P44">
         <f t="shared" si="2"/>
         <v>1336</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -3468,15 +3795,18 @@
       <c r="N45">
         <v>80</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O45">
         <v>17.899999999999999</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45">
         <f t="shared" si="2"/>
         <v>1432</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -3521,15 +3851,18 @@
       <c r="N46">
         <v>80</v>
       </c>
-      <c r="O46" s="23">
+      <c r="O46" s="22">
         <v>8.34</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46">
         <f t="shared" si="2"/>
         <v>667.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -3574,15 +3907,18 @@
       <c r="N47">
         <v>80</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="22">
         <v>32.4</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47">
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -3627,15 +3963,18 @@
       <c r="N48">
         <v>80</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="22">
         <v>26.8</v>
       </c>
-      <c r="P48" s="22">
+      <c r="P48">
         <f t="shared" si="2"/>
         <v>2144</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -3680,15 +4019,18 @@
       <c r="N49">
         <v>80</v>
       </c>
-      <c r="O49" s="23">
+      <c r="O49" s="22">
         <v>51.4</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P49">
         <f t="shared" si="2"/>
         <v>4112</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -3733,15 +4075,18 @@
       <c r="N50">
         <v>80</v>
       </c>
-      <c r="O50" s="23">
+      <c r="O50" s="22">
         <v>10</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -3786,15 +4131,18 @@
       <c r="N51">
         <v>80</v>
       </c>
-      <c r="O51" s="23">
+      <c r="O51" s="22">
         <v>22.6</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -3839,15 +4187,18 @@
       <c r="N52">
         <v>80</v>
       </c>
-      <c r="O52" s="23">
+      <c r="O52" s="22">
         <v>6.06</v>
       </c>
-      <c r="P52" s="22">
+      <c r="P52">
         <f t="shared" si="2"/>
         <v>484.79999999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -3892,15 +4243,18 @@
       <c r="N53">
         <v>80</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O53" s="22">
         <v>5.34</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53">
         <f t="shared" si="2"/>
         <v>427.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -3945,15 +4299,18 @@
       <c r="N54">
         <v>80</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="22">
         <v>26.4</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P54">
         <f t="shared" si="2"/>
         <v>2112</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -3998,15 +4355,18 @@
       <c r="N55">
         <v>80</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="22">
         <v>13.8</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55">
         <f t="shared" si="2"/>
         <v>1104</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -4054,12 +4414,15 @@
       <c r="O56" s="4">
         <v>44.8</v>
       </c>
-      <c r="P56" s="22">
+      <c r="P56">
         <f t="shared" si="2"/>
         <v>3584</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -4104,15 +4467,18 @@
       <c r="N57">
         <v>80</v>
       </c>
-      <c r="O57" s="23">
+      <c r="O57" s="22">
         <v>21</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P57">
         <f t="shared" si="2"/>
         <v>1680</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -4157,15 +4523,18 @@
       <c r="N58">
         <v>80</v>
       </c>
-      <c r="O58" s="23">
+      <c r="O58" s="22">
         <v>28</v>
       </c>
-      <c r="P58" s="22">
+      <c r="P58">
         <f t="shared" si="2"/>
         <v>2240</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4210,15 +4579,18 @@
       <c r="N59">
         <v>80</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O59" s="22">
         <v>10.5</v>
       </c>
-      <c r="P59" s="22">
+      <c r="P59">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -4263,15 +4635,18 @@
       <c r="N60">
         <v>80</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O60" s="22">
         <v>23.2</v>
       </c>
-      <c r="P60" s="22">
+      <c r="P60">
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -4316,15 +4691,18 @@
       <c r="N61">
         <v>80</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="22">
         <v>31.2</v>
       </c>
-      <c r="P61" s="22">
+      <c r="P61">
         <f t="shared" si="2"/>
         <v>2496</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -4369,15 +4747,18 @@
       <c r="N62">
         <v>80</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="22">
         <v>33.200000000000003</v>
       </c>
-      <c r="P62" s="22">
+      <c r="P62">
         <f t="shared" si="2"/>
         <v>2656</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -4425,12 +4806,15 @@
       <c r="O63" s="4">
         <v>5.18</v>
       </c>
-      <c r="P63" s="22">
+      <c r="P63">
         <f t="shared" si="2"/>
         <v>414.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -4475,12 +4859,15 @@
       <c r="N64">
         <v>80</v>
       </c>
-      <c r="O64" s="23">
+      <c r="O64" s="22">
         <v>34.200000000000003</v>
       </c>
-      <c r="P64" s="22">
+      <c r="P64">
         <f t="shared" si="2"/>
         <v>2736</v>
+      </c>
+      <c r="R64" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4534,6 +4921,9 @@
       <c r="P65" s="1">
         <f t="shared" si="2"/>
         <v>1120</v>
+      </c>
+      <c r="R65" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -6657,7 +7047,7 @@
       </c>
       <c r="B1">
         <f t="shared" ref="B1:B32" ca="1" si="0">RAND()</f>
-        <v>0.46086737235485931</v>
+        <v>3.6921243205448984E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6666,7 +7056,7 @@
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76311499065180621</v>
+        <v>0.22474470065921248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6675,7 +7065,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55258583083935719</v>
+        <v>0.13831245016042093</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6684,7 +7074,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28740364432566634</v>
+        <v>0.43557048489600814</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6693,7 +7083,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87710310941424674</v>
+        <v>0.85768604128364356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6702,7 +7092,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3841014268553673E-2</v>
+        <v>0.55430442866867036</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +7101,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62994475842958086</v>
+        <v>0.73358262562521981</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6720,7 +7110,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2157788139922112E-2</v>
+        <v>0.40330577232701215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6729,7 +7119,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98883318925528108</v>
+        <v>0.66671963555952429</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -6738,7 +7128,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79619169765625253</v>
+        <v>0.18403205386806387</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6747,7 +7137,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2855311663488278</v>
+        <v>0.3571103533417872</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6756,7 +7146,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74765857386167678</v>
+        <v>0.28965492596818321</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6765,7 +7155,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46023269802548405</v>
+        <v>0.46146336345090178</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6774,7 +7164,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9387253734697959</v>
+        <v>0.80911965608026193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +7173,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58806852302261359</v>
+        <v>0.47025884980232946</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6792,7 +7182,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5402411002302161E-3</v>
+        <v>0.58237894235077758</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6801,7 +7191,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1644032614626605E-2</v>
+        <v>0.20662994990800432</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6810,7 +7200,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52521225553438722</v>
+        <v>0.79481962143188956</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6819,7 +7209,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75973977795154324</v>
+        <v>0.14399234830029251</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6828,7 +7218,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97938923027029767</v>
+        <v>0.50456966138140735</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6837,7 +7227,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4651584278528103E-2</v>
+        <v>0.23661281909753995</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6846,7 +7236,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63491236266846218</v>
+        <v>0.77278676881266406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +7245,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59682124719783525</v>
+        <v>0.27591191701106998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6864,7 +7254,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28954836488332314</v>
+        <v>5.9030247410646663E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6873,7 +7263,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69735519612771157</v>
+        <v>0.59226911966710616</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6882,7 +7272,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24372434911090535</v>
+        <v>0.86305622669619952</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6891,7 +7281,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29290097586451225</v>
+        <v>0.81190381252294297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6900,7 +7290,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38547543837563492</v>
+        <v>0.52910339800411132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6909,7 +7299,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44367995240174662</v>
+        <v>9.3555043641710078E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6918,7 +7308,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72357060708404042</v>
+        <v>0.34324129018198479</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +7317,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17075082987756973</v>
+        <v>7.6037471213978303E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6936,7 +7326,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12119097190330408</v>
+        <v>0.49777301619032077</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6945,7 +7335,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B64" ca="1" si="1">RAND()</f>
-        <v>0.8879403567913855</v>
+        <v>0.90340647077681491</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6954,7 +7344,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6657715401550957E-2</v>
+        <v>0.59717293336810462</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6963,7 +7353,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20706006882226413</v>
+        <v>0.26333769357350156</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6972,7 +7362,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11167122315946132</v>
+        <v>0.41190880016340092</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6981,7 +7371,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61521808406677747</v>
+        <v>0.79795260694380699</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6990,7 +7380,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14341189325819059</v>
+        <v>0.33961452200811959</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +7389,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83321757634239568</v>
+        <v>0.94245150681385581</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -7008,7 +7398,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65828907695891858</v>
+        <v>0.14662155239067187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -7017,7 +7407,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88716424564925056</v>
+        <v>0.50240454264593637</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -7026,7 +7416,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24697043135819075</v>
+        <v>0.23742834843439864</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -7035,7 +7425,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29930727231015331</v>
+        <v>7.060026450357193E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -7044,7 +7434,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22701333110379296</v>
+        <v>0.20003094081467865</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -7053,7 +7443,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54337912214972939</v>
+        <v>0.92357447462719033</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -7062,7 +7452,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49527661770799514</v>
+        <v>0.70601541842121907</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7461,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9523898871210571</v>
+        <v>0.47053535631948118</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -7080,7 +7470,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20019581875857229</v>
+        <v>9.2571628001301587E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -7089,7 +7479,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96951840282544</v>
+        <v>0.50129129104842407</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -7098,7 +7488,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58221668475903066</v>
+        <v>0.53671548072617459</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -7107,7 +7497,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67464971782414751</v>
+        <v>0.49060570714455909</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -7116,7 +7506,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63484437499082458</v>
+        <v>3.0386108174179416E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -7125,7 +7515,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58326081138097674</v>
+        <v>0.41578162201392588</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -7134,7 +7524,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70805070288446892</v>
+        <v>0.88947246652965417</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7533,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85415383135612821</v>
+        <v>0.68128194186369029</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -7152,7 +7542,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49984509839896984</v>
+        <v>0.56771886956414175</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -7161,7 +7551,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6593130598481588</v>
+        <v>0.32134290650103148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -7170,7 +7560,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66509204607880867</v>
+        <v>0.1206157691295392</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -7179,7 +7569,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35681348832120574</v>
+        <v>0.81362717875018331</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -7188,7 +7578,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34974731113009294</v>
+        <v>0.26937476132222826</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -7197,7 +7587,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23739339237119106</v>
+        <v>0.82883783570859026</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -7206,7 +7596,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22860667128318235</v>
+        <v>0.24280977482513155</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7605,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43858469680040757</v>
+        <v>0.40741421983723092</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -7224,7 +7614,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65526844614580926</v>
+        <v>0.52663883989898475</v>
       </c>
     </row>
   </sheetData>
